--- a/data/trans_bre/P19_2_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P19_2_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,8 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +544,16 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -576,22 +580,32 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +620,8 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +636,52 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>5,29</t>
+          <t>-5,29</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3,2</t>
+          <t>-2,07</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,06</t>
+          <t>-1,94</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,24</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>94,33%</t>
+          <t>-0,21</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>90,38%</t>
+          <t>-5,57%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>59,39%</t>
+          <t>-2,17%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>3,93%</t>
+          <t>-2,04%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0,04%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-0,22%</t>
         </is>
       </c>
     </row>
@@ -668,42 +694,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,97; 9,65</t>
+          <t>-10,64; 0,09</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,14; 6,59</t>
+          <t>-6,88; 2,62</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 4,89</t>
+          <t>-6,6; 2,71</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,64; 3,96</t>
+          <t>-6,52; 5,77</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>9,7; 272,49</t>
+          <t>-7,61; 6,61</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-6,2; 325,38</t>
+          <t>-10,9; 0,1</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-29,04; 236,73</t>
+          <t>-7,07; 2,82</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-46,36; 103,22</t>
+          <t>-6,8; 2,95</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-6,86; 6,58</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-8,21; 7,61</t>
         </is>
       </c>
     </row>
@@ -720,42 +756,52 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>6,96</t>
+          <t>-5,73</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>6,76</t>
+          <t>-5,59</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>4,42</t>
+          <t>-4,4</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>5,84</t>
+          <t>-4,52</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>112,42%</t>
+          <t>-4,24</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>271,22%</t>
+          <t>-6,15%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>129,49%</t>
+          <t>-5,82%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>201,57%</t>
+          <t>-4,61%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-4,66%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-4,44%</t>
         </is>
       </c>
     </row>
@@ -768,42 +814,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,04; 13,55</t>
+          <t>-12,77; 0,88</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,55; 12,2</t>
+          <t>-11,33; -0,07</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,54; 8,43</t>
+          <t>-10,23; 0,79</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,82; 10,35</t>
+          <t>-10,01; 0,29</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>13,15; 347,78</t>
+          <t>-9,53; 1,98</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>37,31; 1037,35</t>
+          <t>-13,39; 0,92</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-3,88; 480,24</t>
+          <t>-11,66; -0,11</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>11,18; 792,61</t>
+          <t>-10,49; 0,85</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-10,16; 0,31</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-9,78; 2,11</t>
         </is>
       </c>
     </row>
@@ -820,42 +876,52 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,84</t>
+          <t>-8,82</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,94</t>
+          <t>-3,2</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,24</t>
+          <t>-1,96</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>6,43</t>
+          <t>-7,54</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>20,8%</t>
+          <t>-4,43</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>307,78%</t>
+          <t>-8,82%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-4,33%</t>
+          <t>-3,2%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>135,55%</t>
+          <t>-2,12%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-7,94%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-4,69%</t>
         </is>
       </c>
     </row>
@@ -868,42 +934,52 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,23; 7,77</t>
+          <t>-22,63; 0,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 12,96</t>
+          <t>-12,99; 0,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-10,12; 8,05</t>
+          <t>-15,22; 15,79</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,37; 16,68</t>
+          <t>-23,98; 4,98</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,69; 16,65</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,63; 0,0</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,99; 0,0</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-56,57; —</t>
+          <t>-15,94; 19,77</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-25,13; 5,3</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-16,64; 18,43</t>
         </is>
       </c>
     </row>
@@ -920,42 +996,52 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5,56</t>
+          <t>-5,89</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4,74</t>
+          <t>-3,7</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2,72</t>
+          <t>-2,92</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3,15</t>
+          <t>-2,6</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>98,64%</t>
+          <t>-2,26</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>166,27%</t>
+          <t>-6,21%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>73,45%</t>
+          <t>-3,85%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>67,05%</t>
+          <t>-3,08%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>-2,76%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-2,42%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1054,59 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,27; 8,98</t>
+          <t>-9,83; -1,65</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,27; 7,45</t>
+          <t>-7,46; -0,33</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,17; 4,96</t>
+          <t>-6,66; 0,74</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,39; 5,85</t>
+          <t>-6,08; 1,07</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>28,1; 203,75</t>
+          <t>-6,59; 2,16</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>52,67; 394,21</t>
+          <t>-10,21; -1,86</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,03; 206,3</t>
+          <t>-7,63; -0,35</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,44; 179,67</t>
+          <t>-6,85; 0,8</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-6,4; 1,11</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-6,94; 2,36</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1011,9 +1114,9 @@
   <mergeCells count="7">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P19_2_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P19_2_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -634,359 +643,235 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-5,29</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-2,07</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-1,94</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,04</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-0,21</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-5,57%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-2,17%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-2,04%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>0,04%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>-0,22%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-5.287784136652441</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-3.705572734468354</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-2.500093870213693</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-0.2382479854413755</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>-0.6800999794476015</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>-0.05572874545471737</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>-0.03869349674386164</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>-0.02628377409520933</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>-0.00260395622176782</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>-0.007470100179135989</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-10,64; 0,09</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-6,88; 2,62</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-6,6; 2,71</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-6,52; 5,77</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-7,61; 6,61</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-10,9; 0,1</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-7,07; 2,82</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-6,8; 2,95</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-6,86; 6,58</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-8,21; 7,61</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-10.63861812485268</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-9.877610834944809</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-7.869986331983335</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-7.147094759905761</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-10.03502089710053</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.1089655563731788</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.1027450155405807</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.08061508131600084</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.07602192730961441</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>-0.1077345233501343</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>0.0911322009221036</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>0.85584580788649</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>2.437521408312223</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>5.888254512092858</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>6.54646643244573</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>0.001004661199674176</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>0.008565743196485977</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.02584563989750126</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>0.06661249934650643</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>0.07460607015698695</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-5,73</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-5,59</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-4,4</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-4,52</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-4,24</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-6,15%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-5,82%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-4,61%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>-4,66%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>-4,44%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-12,77; 0,88</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-11,33; -0,07</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-10,23; 0,79</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-10,01; 0,29</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-9,53; 1,98</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-13,39; 0,92</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-11,66; -0,11</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-10,49; 0,85</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-10,16; 0,31</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-9,78; 2,11</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-5.733678673243226</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-3.79724782504296</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-3.481841755542747</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-3.870741773943143</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>-4.422169696374956</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>-0.06152824064084882</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>-0.04023052843720607</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.03675410548298515</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>-0.04012545779041246</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>-0.04633334805289615</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-8,82</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-3,2</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-1,96</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-7,54</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-4,43</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-8,82%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-3,2%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-2,12%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>-7,94%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>-4,69%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-12.774028911086</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-10.18889444138033</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-9.56253354546252</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-9.421335716294202</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-9.682721774068231</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.1338613965691791</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.1040944907999768</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.09949746677649592</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.09590758272359111</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.09965953085074192</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-22,63; 0,0</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-12,99; 0,0</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-15,22; 15,79</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-23,98; 4,98</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-15,69; 16,65</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-22,63; 0,0</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-12,99; 0,0</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-15,94; 19,77</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-25,13; 5,3</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-16,64; 18,43</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>0.8773436693564953</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>5.022953335844395</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>2.409764798127868</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>1.774777495801219</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>1.779331569668049</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>0.009244990936460772</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>0.05503782430700985</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.02585849216052534</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>0.01760206436170302</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>0.01934538616137666</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -994,117 +879,233 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-5,89</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-3,7</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-2,92</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-2,6</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-2,26</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-6,21%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>-3,85%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>-3,08%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>-2,76%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>-2,42%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-8.81839534972505</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-3.309574916556979</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-0.5447429560114569</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-5.882082534132493</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>-4.320375938212484</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>-0.0881839534972505</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>-0.03309574916556979</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.005959623472785378</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>-0.06231916212038113</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>-0.04588592275982852</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-9,83; -1,65</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-7,46; -0,33</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-6,66; 0,74</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-6,08; 1,07</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-6,59; 2,16</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-10,21; -1,86</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-7,63; -0,35</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-6,85; 0,8</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>-6,4; 1,11</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-6,94; 2,36</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-22.63482316390301</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-13.87682817960386</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-12.9957418659073</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-21.44648415227632</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-16.41734193578554</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.2263482316390301</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.1387682817960386</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.1394463562694307</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.2260500607596131</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>-0.1696816213263184</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>20.21190240129837</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>6.516452207382504</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>17.06360287427665</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.2560953420231817</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>0.07234619297985287</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>0.1843539087516594</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>-5.888537814544947</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-3.683325624183664</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-2.680482966495779</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-2.371218627844451</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>-2.593128077365348</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>-0.06213215781726486</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>-0.0385193544465032</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>-0.02834393560600931</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>-0.02525328854062018</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>-0.0278357311492316</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-9.825408643483108</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-7.946442278446582</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-6.714769760612681</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-5.904653694645334</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-7.355174441215564</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.1020662517803429</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.08142343561507243</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.06932991242727193</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.06259600449775334</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>-0.07813830514408485</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>-1.648693374370498</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.5961269714567161</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>1.257449553007305</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>1.474613653992772</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>2.224881509729587</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>-0.01856230555883402</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.006325704169712856</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.01360022736228379</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>0.01586814757661753</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>0.02459106072456224</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1112,13 +1113,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
